--- a/crm接口文档/客户来访管理/查看客户来访记录详情.xlsx
+++ b/crm接口文档/客户来访管理/查看客户来访记录详情.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14490" windowHeight="5040"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -170,7 +170,7 @@
     <t>客户来访内容</t>
   </si>
   <si>
-    <t>cusEvaluation</t>
+    <t>cusEvaluationStr</t>
   </si>
   <si>
     <t>客户评价</t>
@@ -187,10 +187,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -252,7 +252,128 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,133 +388,12 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -428,6 +428,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -440,175 +500,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,41 +674,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -724,26 +694,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -771,6 +721,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -779,10 +779,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -791,133 +791,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1339,7 +1339,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:D14"/>
+      <selection activeCell="B17" sqref="B17:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/crm接口文档/客户来访管理/查看客户来访记录详情.xlsx
+++ b/crm接口文档/客户来访管理/查看客户来访记录详情.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
   <si>
     <t>URL</t>
   </si>
@@ -181,6 +181,24 @@
   <si>
     <t>客户来访记录详情</t>
   </si>
+  <si>
+    <t>cusVisitStartTime</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>客户来访开始时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data不为空时必须 </t>
+  </si>
+  <si>
+    <t>cusVisitEndTime</t>
+  </si>
+  <si>
+    <t>客户来访结束时间</t>
+  </si>
 </sst>
 </file>
 
@@ -188,8 +206,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -252,14 +270,136 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,128 +412,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -428,187 +446,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,8 +695,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,23 +734,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,15 +757,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -771,6 +765,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -779,10 +797,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -791,137 +809,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -980,6 +998,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1336,10 +1375,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:D17"/>
+      <selection activeCell="A19" sqref="$A19:$XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1462,7 +1501,7 @@
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="27" t="s">
         <v>15</v>
       </c>
       <c r="J6" s="8"/>
@@ -1508,7 +1547,7 @@
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="28" t="s">
         <v>15</v>
       </c>
       <c r="J8" s="16"/>
@@ -1679,7 +1718,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" ht="15" spans="1:9">
+    <row r="18" ht="15.75" spans="1:9">
       <c r="A18" s="18" t="s">
         <v>33</v>
       </c>
@@ -1696,8 +1735,50 @@
         <v>36</v>
       </c>
     </row>
+    <row r="19" ht="15.75" spans="1:9">
+      <c r="A19" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="25"/>
+      <c r="H19" s="26"/>
+      <c r="I19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" spans="1:9">
+      <c r="A20" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="25"/>
+      <c r="H20" s="26"/>
+      <c r="I20" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="38">
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B3:E3"/>
@@ -1732,6 +1813,10 @@
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="F18:H18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="F20:H20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://www.21mhealth.com/" tooltip="https://www.21mhealth.com/"/>

--- a/crm接口文档/客户来访管理/查看客户来访记录详情.xlsx
+++ b/crm接口文档/客户来访管理/查看客户来访记录详情.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
   <si>
     <t>URL</t>
   </si>
@@ -199,6 +199,12 @@
   <si>
     <t>客户来访结束时间</t>
   </si>
+  <si>
+    <t>cusEvaluation</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
 </sst>
 </file>
 
@@ -270,9 +276,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -284,36 +350,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,37 +383,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -366,17 +390,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,26 +405,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -446,187 +452,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,11 +698,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,17 +728,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,7 +741,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -757,6 +778,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -765,30 +795,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -797,10 +803,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -809,133 +815,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1375,10 +1381,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A19" sqref="$A19:$XFD20"/>
+      <selection activeCell="A21" sqref="$A21:$XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1777,8 +1783,25 @@
         <v>52</v>
       </c>
     </row>
+    <row r="21" ht="15" spans="1:9">
+      <c r="A21" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="40">
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B3:E3"/>
@@ -1817,6 +1840,8 @@
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="F20:H20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="F21:H21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://www.21mhealth.com/" tooltip="https://www.21mhealth.com/"/>

--- a/crm接口文档/客户来访管理/查看客户来访记录详情.xlsx
+++ b/crm接口文档/客户来访管理/查看客户来访记录详情.xlsx
@@ -26,9 +26,6 @@
     <t>URL</t>
   </si>
   <si>
-    <t>/qiuxx/crm/30010/400</t>
-  </si>
-  <si>
     <t>接口描述</t>
   </si>
   <si>
@@ -245,6 +242,10 @@
   </si>
   <si>
     <t>客户id</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qiuxx/crm/30010/500</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -453,80 +454,80 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -834,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:D18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -849,442 +850,472 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="B1" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="11">
+      <c r="G3" s="30">
         <v>8080</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
     </row>
     <row r="4" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="27"/>
       <c r="I6" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
       <c r="I8" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" t="s">
         <v>35</v>
-      </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
       <c r="I13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="33" t="s">
+      <c r="F14" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
       <c r="I14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
       <c r="I15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
       <c r="I16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
+        <v>32</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
       <c r="E17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
+        <v>26</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
       <c r="I17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
       <c r="I18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="6" t="s">
+      <c r="F19" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="29" t="s">
+      <c r="G19" s="14"/>
+      <c r="H19" s="15"/>
+      <c r="I19" t="s">
         <v>49</v>
-      </c>
-      <c r="G19" s="30"/>
-      <c r="H19" s="31"/>
-      <c r="I19" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="30"/>
-      <c r="H20" s="31"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="15"/>
       <c r="I20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
+      <c r="F21" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
       <c r="I21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="B21:D21"/>
@@ -1295,36 +1326,6 @@
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="F19:H19"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="G4:J4"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
